--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\importador-acme\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66044DBF-D481-4240-89E8-DFEFBEFA665C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C7BF6D-6EBC-4DEE-B97A-0EAB8A28B40B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="110">
   <si>
     <t>Vendedor</t>
   </si>
@@ -670,7 +670,9 @@
   </sheetPr>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0"/>
+    <sheetView zoomScale="117" workbookViewId="0">
+      <selection sqref="A1:B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -762,7 +764,9 @@
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -925,8 +929,8 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1519,7 +1523,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1920,11 +1924,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H87"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1986,7 +1990,7 @@
         <v>2</v>
       </c>
       <c r="H2" s="8">
-        <f t="shared" ref="H2:H85" si="0">F2*G2</f>
+        <f t="shared" ref="H2:H84" si="0">F2*G2</f>
         <v>3120</v>
       </c>
     </row>
@@ -2505,10 +2509,10 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
-        <v>44729</v>
+        <v>44610</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>78</v>
@@ -2517,25 +2521,25 @@
         <v>24</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="F22" s="8">
-        <v>1560</v>
+        <v>1487</v>
       </c>
       <c r="G22" s="2">
         <v>2</v>
       </c>
       <c r="H22" s="8">
         <f t="shared" si="0"/>
-        <v>3120</v>
+        <v>2974</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
-        <v>44610</v>
+        <v>44674</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>78</v>
@@ -2547,25 +2551,25 @@
         <v>38</v>
       </c>
       <c r="F23" s="8">
-        <v>1487</v>
+        <v>756</v>
       </c>
       <c r="G23" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23" s="8">
         <f t="shared" si="0"/>
-        <v>2974</v>
+        <v>756</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
-        <v>44674</v>
+        <v>44702</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>24</v>
@@ -2574,76 +2578,76 @@
         <v>38</v>
       </c>
       <c r="F24" s="8">
-        <v>756</v>
+        <v>455.8</v>
       </c>
       <c r="G24" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H24" s="8">
         <f t="shared" si="0"/>
-        <v>756</v>
+        <v>1823.2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
-        <v>44702</v>
+        <v>44576</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F25" s="8">
-        <v>455.8</v>
+        <v>785</v>
       </c>
       <c r="G25" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H25" s="8">
         <f t="shared" si="0"/>
-        <v>1823.2</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
-        <v>44576</v>
+        <v>44729</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F26" s="8">
-        <v>785</v>
+        <v>2900</v>
       </c>
       <c r="G26" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H26" s="8">
         <f t="shared" si="0"/>
-        <v>2355</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
-        <v>44729</v>
+        <v>44849</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>78</v>
@@ -2655,22 +2659,22 @@
         <v>42</v>
       </c>
       <c r="F27" s="8">
-        <v>2900</v>
+        <v>4100</v>
       </c>
       <c r="G27" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H27" s="8">
         <f t="shared" si="0"/>
-        <v>2900</v>
+        <v>20500</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
-        <v>44849</v>
+        <v>44575</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>78</v>
@@ -2682,22 +2686,22 @@
         <v>42</v>
       </c>
       <c r="F28" s="8">
-        <v>4100</v>
+        <v>1789</v>
       </c>
       <c r="G28" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H28" s="8">
         <f t="shared" si="0"/>
-        <v>20500</v>
+        <v>3578</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
-        <v>44575</v>
+        <v>44891</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>78</v>
@@ -2709,52 +2713,52 @@
         <v>42</v>
       </c>
       <c r="F29" s="8">
-        <v>1789</v>
+        <v>861</v>
       </c>
       <c r="G29" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H29" s="8">
         <f t="shared" si="0"/>
-        <v>3578</v>
+        <v>12915</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="7">
-        <v>44891</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>78</v>
+      <c r="A30" s="9">
+        <v>44917</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F30" s="8">
-        <v>861</v>
-      </c>
-      <c r="G30" s="2">
-        <v>15</v>
-      </c>
-      <c r="H30" s="8">
-        <f t="shared" si="0"/>
-        <v>12915</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="F30" s="11">
+        <v>10000</v>
+      </c>
+      <c r="G30" s="12">
+        <v>2</v>
+      </c>
+      <c r="H30" s="13">
+        <f t="shared" si="0"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
-        <v>44917</v>
+        <v>44730</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>16</v>
@@ -2763,52 +2767,52 @@
         <v>43</v>
       </c>
       <c r="F31" s="11">
-        <v>10000</v>
+        <v>1800</v>
       </c>
       <c r="G31" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H31" s="13">
         <f t="shared" si="0"/>
-        <v>20000</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="9">
-        <v>44730</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C32" s="10" t="s">
+      <c r="A32" s="7">
+        <v>44812</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F32" s="11">
-        <v>1800</v>
-      </c>
-      <c r="G32" s="12">
-        <v>3</v>
-      </c>
-      <c r="H32" s="13">
-        <f t="shared" si="0"/>
-        <v>5400</v>
+        <v>44</v>
+      </c>
+      <c r="F32" s="8">
+        <v>1560</v>
+      </c>
+      <c r="G32" s="2">
+        <v>2</v>
+      </c>
+      <c r="H32" s="8">
+        <f t="shared" si="0"/>
+        <v>3120</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
-        <v>44812</v>
+        <v>44759</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>16</v>
@@ -2817,52 +2821,52 @@
         <v>44</v>
       </c>
       <c r="F33" s="8">
-        <v>1560</v>
+        <v>790</v>
       </c>
       <c r="G33" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H33" s="8">
         <f t="shared" si="0"/>
-        <v>3120</v>
+        <v>3160</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="7">
-        <v>44759</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>93</v>
+      <c r="A34" s="14">
+        <v>44920</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F34" s="8">
-        <v>790</v>
-      </c>
-      <c r="G34" s="2">
-        <v>4</v>
-      </c>
-      <c r="H34" s="8">
-        <f t="shared" si="0"/>
-        <v>3160</v>
+        <v>45</v>
+      </c>
+      <c r="F34" s="13">
+        <v>10554</v>
+      </c>
+      <c r="G34" s="12">
+        <v>25</v>
+      </c>
+      <c r="H34" s="13">
+        <f t="shared" si="0"/>
+        <v>263850</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="14">
-        <v>44920</v>
+        <v>44827</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>16</v>
@@ -2871,22 +2875,22 @@
         <v>45</v>
       </c>
       <c r="F35" s="13">
-        <v>10554</v>
+        <v>25000</v>
       </c>
       <c r="G35" s="12">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="H35" s="13">
         <f t="shared" si="0"/>
-        <v>263850</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="14">
-        <v>44827</v>
+        <v>44758</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>87</v>
@@ -2897,80 +2901,80 @@
       <c r="E36" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F36" s="13">
-        <v>25000</v>
+      <c r="F36" s="11">
+        <v>27800</v>
       </c>
       <c r="G36" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H36" s="13">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>83400</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A37" s="14">
-        <v>44758</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>87</v>
+      <c r="A37" s="7">
+        <v>44925</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F37" s="11">
-        <v>27800</v>
-      </c>
-      <c r="G37" s="12">
-        <v>3</v>
-      </c>
-      <c r="H37" s="13">
-        <f t="shared" si="0"/>
-        <v>83400</v>
+        <v>46</v>
+      </c>
+      <c r="F37" s="8">
+        <v>1750</v>
+      </c>
+      <c r="G37" s="2">
+        <v>2</v>
+      </c>
+      <c r="H37" s="8">
+        <f t="shared" si="0"/>
+        <v>3500</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="7">
-        <v>44925</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>78</v>
+      <c r="A38" s="14">
+        <v>44730</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F38" s="8">
-        <v>1750</v>
-      </c>
-      <c r="G38" s="2">
+        <v>18</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" s="13">
+        <v>10554</v>
+      </c>
+      <c r="G38" s="12">
         <v>2</v>
       </c>
-      <c r="H38" s="8">
-        <f t="shared" si="0"/>
-        <v>3500</v>
+      <c r="H38" s="13">
+        <f t="shared" si="0"/>
+        <v>21108</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="14">
-        <v>44730</v>
+        <v>44673</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>18</v>
@@ -2978,53 +2982,53 @@
       <c r="E39" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F39" s="13">
-        <v>10554</v>
+      <c r="F39" s="11">
+        <v>24000</v>
       </c>
       <c r="G39" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H39" s="13">
         <f t="shared" si="0"/>
-        <v>21108</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="14">
-        <v>44673</v>
+        <v>44577</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F40" s="11">
-        <v>24000</v>
-      </c>
-      <c r="G40" s="12">
+        <v>19</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" s="13">
+        <v>785</v>
+      </c>
+      <c r="G40" s="16">
         <v>3</v>
       </c>
       <c r="H40" s="13">
         <f t="shared" si="0"/>
-        <v>72000</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="14">
-        <v>44577</v>
+        <v>44835</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>19</v>
@@ -3033,25 +3037,25 @@
         <v>43</v>
       </c>
       <c r="F41" s="13">
-        <v>785</v>
-      </c>
-      <c r="G41" s="16">
+        <v>1750</v>
+      </c>
+      <c r="G41" s="12">
         <v>3</v>
       </c>
       <c r="H41" s="13">
         <f t="shared" si="0"/>
-        <v>2355</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="14">
-        <v>44835</v>
+        <v>44646</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>19</v>
@@ -3059,50 +3063,50 @@
       <c r="E42" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F42" s="13">
-        <v>1750</v>
+      <c r="F42" s="11">
+        <v>589</v>
       </c>
       <c r="G42" s="12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H42" s="13">
         <f t="shared" si="0"/>
-        <v>5250</v>
+        <v>2945</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" s="14">
-        <v>44646</v>
+        <v>44688</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F43" s="11">
-        <v>589</v>
+        <v>1565</v>
       </c>
       <c r="G43" s="12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H43" s="13">
         <f t="shared" si="0"/>
-        <v>2945</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="14">
-        <v>44688</v>
+        <v>44710</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>78</v>
@@ -3114,52 +3118,52 @@
         <v>48</v>
       </c>
       <c r="F44" s="11">
-        <v>1565</v>
+        <v>2550</v>
       </c>
       <c r="G44" s="12">
         <v>1</v>
       </c>
       <c r="H44" s="13">
         <f t="shared" si="0"/>
-        <v>1565</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" s="14">
-        <v>44710</v>
+        <v>44717</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F45" s="11">
-        <v>2550</v>
+        <v>4530</v>
       </c>
       <c r="G45" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H45" s="13">
         <f t="shared" si="0"/>
-        <v>2550</v>
+        <v>9060</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" s="14">
-        <v>44717</v>
+        <v>44920</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>19</v>
@@ -3168,22 +3172,22 @@
         <v>49</v>
       </c>
       <c r="F46" s="11">
-        <v>4530</v>
+        <v>1850</v>
       </c>
       <c r="G46" s="12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H46" s="13">
         <f t="shared" si="0"/>
-        <v>9060</v>
+        <v>11100</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="14">
-        <v>44920</v>
+        <v>44568</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>78</v>
@@ -3195,49 +3199,49 @@
         <v>49</v>
       </c>
       <c r="F47" s="11">
-        <v>1850</v>
+        <v>840</v>
       </c>
       <c r="G47" s="12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H47" s="13">
         <f t="shared" si="0"/>
-        <v>11100</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" s="14">
-        <v>44568</v>
+        <v>44874</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>19</v>
+        <v>87</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F48" s="11">
-        <v>840</v>
-      </c>
-      <c r="G48" s="12">
-        <v>7</v>
+        <v>24500</v>
+      </c>
+      <c r="G48" s="16">
+        <v>1</v>
       </c>
       <c r="H48" s="13">
         <f t="shared" si="0"/>
-        <v>5880</v>
+        <v>24500</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="14">
-        <v>44874</v>
+        <v>44744</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>87</v>
@@ -3249,25 +3253,25 @@
         <v>54</v>
       </c>
       <c r="F49" s="11">
-        <v>24500</v>
-      </c>
-      <c r="G49" s="16">
-        <v>1</v>
+        <v>4400</v>
+      </c>
+      <c r="G49" s="12">
+        <v>2</v>
       </c>
       <c r="H49" s="13">
         <f t="shared" si="0"/>
-        <v>24500</v>
+        <v>8800</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" s="14">
-        <v>44744</v>
+        <v>44742</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D50" s="15" t="s">
         <v>20</v>
@@ -3275,20 +3279,20 @@
       <c r="E50" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F50" s="11">
-        <v>4400</v>
+      <c r="F50" s="13">
+        <v>756</v>
       </c>
       <c r="G50" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H50" s="13">
         <f t="shared" si="0"/>
-        <v>8800</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" s="14">
-        <v>44742</v>
+        <v>44603</v>
       </c>
       <c r="B51" s="10" t="s">
         <v>91</v>
@@ -3302,23 +3306,23 @@
       <c r="E51" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F51" s="13">
-        <v>756</v>
+      <c r="F51" s="11">
+        <v>863</v>
       </c>
       <c r="G51" s="12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H51" s="13">
         <f t="shared" si="0"/>
-        <v>3024</v>
+        <v>4315</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52" s="14">
-        <v>44603</v>
+        <v>44859</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>78</v>
@@ -3327,28 +3331,28 @@
         <v>20</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F52" s="11">
-        <v>863</v>
-      </c>
-      <c r="G52" s="12">
+        <v>55</v>
+      </c>
+      <c r="F52" s="13">
+        <v>4100</v>
+      </c>
+      <c r="G52" s="16">
         <v>5</v>
       </c>
       <c r="H52" s="13">
         <f t="shared" si="0"/>
-        <v>4315</v>
+        <v>20500</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A53" s="14">
-        <v>44859</v>
+        <v>44820</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D53" s="15" t="s">
         <v>20</v>
@@ -3356,26 +3360,26 @@
       <c r="E53" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F53" s="13">
-        <v>4100</v>
+      <c r="F53" s="11">
+        <v>25250</v>
       </c>
       <c r="G53" s="16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H53" s="13">
         <f t="shared" si="0"/>
-        <v>20500</v>
+        <v>50500</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" s="14">
-        <v>44820</v>
+        <v>44791</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D54" s="15" t="s">
         <v>20</v>
@@ -3384,49 +3388,49 @@
         <v>55</v>
       </c>
       <c r="F54" s="11">
-        <v>25250</v>
-      </c>
-      <c r="G54" s="16">
-        <v>2</v>
+        <v>1600</v>
+      </c>
+      <c r="G54" s="12">
+        <v>3</v>
       </c>
       <c r="H54" s="13">
         <f t="shared" si="0"/>
-        <v>50500</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" s="14">
-        <v>44791</v>
+        <v>44723</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D55" s="15" t="s">
-        <v>20</v>
+      <c r="D55" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F55" s="11">
-        <v>1600</v>
+        <v>56</v>
+      </c>
+      <c r="F55" s="13">
+        <v>756</v>
       </c>
       <c r="G55" s="12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H55" s="13">
         <f t="shared" si="0"/>
-        <v>4800</v>
+        <v>3780</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" s="14">
-        <v>44723</v>
+        <v>44901</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>78</v>
@@ -3438,22 +3442,22 @@
         <v>56</v>
       </c>
       <c r="F56" s="13">
-        <v>756</v>
+        <v>1750</v>
       </c>
       <c r="G56" s="12">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H56" s="13">
         <f t="shared" si="0"/>
-        <v>3780</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" s="14">
-        <v>44901</v>
+        <v>44793</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>78</v>
@@ -3465,22 +3469,22 @@
         <v>56</v>
       </c>
       <c r="F57" s="13">
-        <v>1750</v>
+        <v>2550</v>
       </c>
       <c r="G57" s="12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H57" s="13">
         <f t="shared" si="0"/>
-        <v>14000</v>
+        <v>17850</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" s="14">
-        <v>44793</v>
+        <v>44694</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C58" s="10" t="s">
         <v>78</v>
@@ -3489,25 +3493,25 @@
         <v>22</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F58" s="13">
-        <v>2550</v>
-      </c>
-      <c r="G58" s="12">
-        <v>7</v>
+        <v>39</v>
+      </c>
+      <c r="F58" s="11">
+        <v>1570</v>
+      </c>
+      <c r="G58" s="16">
+        <v>2</v>
       </c>
       <c r="H58" s="13">
         <f t="shared" si="0"/>
-        <v>17850</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A59" s="14">
-        <v>44694</v>
+        <v>44632</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C59" s="10" t="s">
         <v>78</v>
@@ -3519,52 +3523,52 @@
         <v>39</v>
       </c>
       <c r="F59" s="11">
-        <v>1570</v>
-      </c>
-      <c r="G59" s="16">
-        <v>2</v>
+        <v>255</v>
+      </c>
+      <c r="G59" s="12">
+        <v>1</v>
       </c>
       <c r="H59" s="13">
         <f t="shared" si="0"/>
-        <v>3140</v>
+        <v>255</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" s="14">
-        <v>44632</v>
+        <v>44668</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F60" s="11">
-        <v>255</v>
-      </c>
-      <c r="G60" s="12">
-        <v>1</v>
+        <v>57</v>
+      </c>
+      <c r="F60" s="13">
+        <v>4809</v>
+      </c>
+      <c r="G60" s="16">
+        <v>2</v>
       </c>
       <c r="H60" s="13">
         <f t="shared" si="0"/>
-        <v>255</v>
+        <v>9618</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" s="14">
-        <v>44668</v>
+        <v>44688</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>22</v>
@@ -3573,25 +3577,25 @@
         <v>57</v>
       </c>
       <c r="F61" s="13">
-        <v>4809</v>
-      </c>
-      <c r="G61" s="16">
-        <v>2</v>
+        <v>1487</v>
+      </c>
+      <c r="G61" s="12">
+        <v>1</v>
       </c>
       <c r="H61" s="13">
         <f t="shared" si="0"/>
-        <v>9618</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A62" s="14">
-        <v>44688</v>
+        <v>44849</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>22</v>
@@ -3600,46 +3604,46 @@
         <v>57</v>
       </c>
       <c r="F62" s="13">
-        <v>1487</v>
+        <v>785</v>
       </c>
       <c r="G62" s="12">
         <v>1</v>
       </c>
       <c r="H62" s="13">
         <f t="shared" si="0"/>
-        <v>1487</v>
+        <v>785</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" s="14">
-        <v>44849</v>
+        <v>44840</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F63" s="13">
-        <v>785</v>
+        <v>55</v>
+      </c>
+      <c r="F63" s="11">
+        <v>1850</v>
       </c>
       <c r="G63" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H63" s="13">
         <f t="shared" si="0"/>
-        <v>785</v>
+        <v>5550</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" s="14">
-        <v>44840</v>
+        <v>44820</v>
       </c>
       <c r="B64" s="10" t="s">
         <v>90</v>
@@ -3648,55 +3652,55 @@
         <v>78</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F64" s="11">
-        <v>1850</v>
+        <v>58</v>
+      </c>
+      <c r="F64" s="13">
+        <v>1750</v>
       </c>
       <c r="G64" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H64" s="13">
         <f t="shared" si="0"/>
-        <v>5550</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" s="14">
-        <v>44820</v>
+        <v>44609</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F65" s="13">
-        <v>1750</v>
+        <v>27800</v>
       </c>
       <c r="G65" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H65" s="13">
         <f t="shared" si="0"/>
-        <v>3500</v>
+        <v>111200</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A66" s="14">
-        <v>44609</v>
+        <v>44842</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C66" s="10" t="s">
         <v>87</v>
@@ -3705,55 +3709,55 @@
         <v>26</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F66" s="13">
-        <v>27800</v>
+        <v>24500</v>
       </c>
       <c r="G66" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H66" s="13">
         <f t="shared" si="0"/>
-        <v>111200</v>
+        <v>73500</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A67" s="14">
-        <v>44842</v>
+        <v>44611</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F67" s="13">
-        <v>24500</v>
+        <v>785</v>
       </c>
       <c r="G67" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H67" s="13">
         <f t="shared" si="0"/>
-        <v>73500</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A68" s="14">
-        <v>44611</v>
+        <v>44841</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>27</v>
@@ -3762,25 +3766,25 @@
         <v>61</v>
       </c>
       <c r="F68" s="13">
-        <v>785</v>
+        <v>25000</v>
       </c>
       <c r="G68" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H68" s="13">
         <f t="shared" si="0"/>
-        <v>1570</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A69" s="14">
-        <v>44841</v>
+        <v>44799</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>27</v>
@@ -3789,52 +3793,52 @@
         <v>61</v>
       </c>
       <c r="F69" s="13">
-        <v>25000</v>
+        <v>1597</v>
       </c>
       <c r="G69" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H69" s="13">
         <f t="shared" si="0"/>
-        <v>75000</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A70" s="14">
-        <v>44799</v>
+        <v>44766</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F70" s="13">
-        <v>1597</v>
-      </c>
-      <c r="G70" s="12">
-        <v>1</v>
+        <v>4400</v>
+      </c>
+      <c r="G70" s="16">
+        <v>2</v>
       </c>
       <c r="H70" s="13">
         <f t="shared" si="0"/>
-        <v>1597</v>
+        <v>8800</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A71" s="14">
-        <v>44766</v>
+        <v>44594</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>27</v>
@@ -3842,50 +3846,50 @@
       <c r="E71" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F71" s="13">
-        <v>4400</v>
-      </c>
-      <c r="G71" s="16">
-        <v>2</v>
+      <c r="F71" s="11">
+        <v>865</v>
+      </c>
+      <c r="G71" s="12">
+        <v>4</v>
       </c>
       <c r="H71" s="13">
         <f t="shared" si="0"/>
-        <v>8800</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A72" s="14">
-        <v>44594</v>
+        <v>44759</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F72" s="11">
-        <v>865</v>
+        <v>63</v>
+      </c>
+      <c r="F72" s="13">
+        <v>4789</v>
       </c>
       <c r="G72" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H72" s="13">
         <f t="shared" si="0"/>
-        <v>3460</v>
+        <v>14367</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A73" s="14">
-        <v>44759</v>
+        <v>44710</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="C73" s="10" t="s">
         <v>87</v>
@@ -3897,133 +3901,133 @@
         <v>63</v>
       </c>
       <c r="F73" s="13">
-        <v>4789</v>
-      </c>
-      <c r="G73" s="12">
-        <v>3</v>
+        <v>26700</v>
+      </c>
+      <c r="G73" s="16">
+        <v>1</v>
       </c>
       <c r="H73" s="13">
         <f t="shared" si="0"/>
-        <v>14367</v>
+        <v>26700</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A74" s="14">
-        <v>44710</v>
+        <v>44591</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F74" s="13">
-        <v>26700</v>
+        <v>65</v>
+      </c>
+      <c r="F74" s="11">
+        <v>1890</v>
       </c>
       <c r="G74" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H74" s="13">
         <f t="shared" si="0"/>
-        <v>26700</v>
+        <v>3780</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A75" s="14">
-        <v>44591</v>
+        <v>44731</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F75" s="11">
-        <v>1890</v>
-      </c>
-      <c r="G75" s="16">
-        <v>2</v>
+        <v>24500</v>
+      </c>
+      <c r="G75" s="12">
+        <v>1</v>
       </c>
       <c r="H75" s="13">
         <f t="shared" si="0"/>
-        <v>3780</v>
+        <v>24500</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A76" s="14">
-        <v>44731</v>
+        <v>44584</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F76" s="11">
-        <v>24500</v>
+        <v>66</v>
+      </c>
+      <c r="F76" s="13">
+        <v>785</v>
       </c>
       <c r="G76" s="12">
         <v>1</v>
       </c>
       <c r="H76" s="13">
         <f t="shared" si="0"/>
-        <v>24500</v>
+        <v>785</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A77" s="14">
-        <v>44584</v>
+        <v>44657</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F77" s="13">
-        <v>785</v>
+        <v>67</v>
+      </c>
+      <c r="F77" s="11">
+        <v>25000</v>
       </c>
       <c r="G77" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H77" s="13">
         <f t="shared" si="0"/>
-        <v>785</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A78" s="14">
-        <v>44657</v>
+        <v>44849</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>29</v>
@@ -4032,52 +4036,52 @@
         <v>67</v>
       </c>
       <c r="F78" s="11">
-        <v>25000</v>
-      </c>
-      <c r="G78" s="12">
-        <v>2</v>
+        <v>1800</v>
+      </c>
+      <c r="G78" s="16">
+        <v>3</v>
       </c>
       <c r="H78" s="13">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A79" s="14">
-        <v>44849</v>
+        <v>44729</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F79" s="11">
-        <v>1800</v>
-      </c>
-      <c r="G79" s="16">
-        <v>3</v>
+        <v>68</v>
+      </c>
+      <c r="F79" s="13">
+        <v>2895</v>
+      </c>
+      <c r="G79" s="12">
+        <v>10</v>
       </c>
       <c r="H79" s="13">
         <f t="shared" si="0"/>
-        <v>5400</v>
+        <v>28950</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A80" s="14">
-        <v>44729</v>
+        <v>44743</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>29</v>
@@ -4086,25 +4090,25 @@
         <v>68</v>
       </c>
       <c r="F80" s="13">
-        <v>2895</v>
+        <v>4789</v>
       </c>
       <c r="G80" s="12">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H80" s="13">
         <f t="shared" si="0"/>
-        <v>28950</v>
+        <v>38312</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A81" s="14">
-        <v>44743</v>
+        <v>44729</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>29</v>
@@ -4113,22 +4117,22 @@
         <v>68</v>
       </c>
       <c r="F81" s="13">
-        <v>4789</v>
+        <v>2500</v>
       </c>
       <c r="G81" s="12">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="H81" s="13">
         <f t="shared" si="0"/>
-        <v>38312</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A82" s="14">
-        <v>44729</v>
+        <v>44885</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C82" s="10" t="s">
         <v>78</v>
@@ -4139,23 +4143,23 @@
       <c r="E82" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F82" s="13">
-        <v>2500</v>
+      <c r="F82" s="11">
+        <v>8750</v>
       </c>
       <c r="G82" s="12">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="H82" s="13">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>1365000</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A83" s="14">
-        <v>44885</v>
+        <v>44913</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C83" s="10" t="s">
         <v>78</v>
@@ -4167,25 +4171,25 @@
         <v>68</v>
       </c>
       <c r="F83" s="11">
-        <v>8750</v>
-      </c>
-      <c r="G83" s="12">
-        <v>156</v>
+        <v>890</v>
+      </c>
+      <c r="G83" s="16">
+        <v>15</v>
       </c>
       <c r="H83" s="13">
         <f t="shared" si="0"/>
-        <v>1365000</v>
+        <v>13350</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A84" s="14">
-        <v>44913</v>
+        <v>44600</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>29</v>
@@ -4193,43 +4197,26 @@
       <c r="E84" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F84" s="11">
-        <v>890</v>
-      </c>
-      <c r="G84" s="16">
-        <v>15</v>
+      <c r="F84" s="13">
+        <v>785</v>
+      </c>
+      <c r="G84" s="12">
+        <v>3</v>
       </c>
       <c r="H84" s="13">
         <f t="shared" si="0"/>
-        <v>13350</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A85" s="14">
-        <v>44600</v>
-      </c>
-      <c r="B85" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F85" s="13">
-        <v>785</v>
-      </c>
-      <c r="G85" s="12">
-        <v>3</v>
-      </c>
-      <c r="H85" s="13">
-        <f t="shared" si="0"/>
-        <v>2355</v>
-      </c>
+      <c r="A85" s="9"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="13"/>
+      <c r="G85" s="16"/>
+      <c r="H85" s="13"/>
     </row>
     <row r="86" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A86" s="9"/>
@@ -4241,16 +4228,6 @@
       <c r="G86" s="16"/>
       <c r="H86" s="13"/>
     </row>
-    <row r="87" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A87" s="9"/>
-      <c r="B87" s="10"/>
-      <c r="C87" s="10"/>
-      <c r="D87" s="10"/>
-      <c r="E87" s="10"/>
-      <c r="F87" s="13"/>
-      <c r="G87" s="16"/>
-      <c r="H87" s="13"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
